--- a/documents/DACNTT2.1.xlsx
+++ b/documents/DACNTT2.1.xlsx
@@ -79,13 +79,7 @@
     <t>Thiết kế hệ thống</t>
   </si>
   <si>
-    <t>Vẽ Class Diagram</t>
-  </si>
-  <si>
     <t>Phân tích và thiết kế cơ sở dữ liệu; Chọn 1 DBMS để thiết kế cơ sở dữ liệu; Chạy demo</t>
-  </si>
-  <si>
-    <t>Vẽ mô hình ERD dưới gốc nhìn vật lý của hệ thống; tạo và viết migration trong laravel; chạy migration trong laravel; export code SQL từ phpMyAdmin</t>
   </si>
   <si>
     <t>Ghi chú</t>
@@ -97,12 +91,20 @@
     <t>Chọn công nghệ cho back-end.</t>
   </si>
   <si>
-    <t>Tìm hiểu VueJS.
+    <t>Tìm hiểu Laravel
 Khó khăn: chưa có tài liệu hay ví dụ cụ thể về cách đăng nhập và phân quyền cho việc kết hợp Laravel và VueJS lại với nhau.</t>
   </si>
   <si>
-    <t>Tìm hiểu Laravel
-Khó khăn: chưa có tài liệu hay ví dụ cụ thể về cách đăng nhập và phân quyền cho việc kết hợp Laravel và VueJS lại với nhau.</t>
+    <t>Tạo và viết migration trong laravel; chạy migration trong laravel.
+Export code SQL từ phpMyAdmin.</t>
+  </si>
+  <si>
+    <t>Vẽ ER Diagram; Vẽ Class Diagram</t>
+  </si>
+  <si>
+    <t>Tìm hiểu VueJS.
+Khó khăn: chưa có tài liệu hay ví dụ cụ thể về cách đăng nhập và phân quyền cho việc kết hợp Laravel và VueJS lại với nhau.
+Chọn Blade template</t>
   </si>
 </sst>
 </file>
@@ -479,8 +481,8 @@
   </sheetPr>
   <dimension ref="A1:AD985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -724,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>12</v>
@@ -815,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="19">
@@ -845,7 +847,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -858,14 +860,14 @@
         <v>44137</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -891,7 +893,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -904,11 +906,11 @@
         <v>44144</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="19">
         <v>0</v>
@@ -950,11 +952,11 @@
         <v>44151</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="19">
         <v>0</v>

--- a/documents/DACNTT2.1.xlsx
+++ b/documents/DACNTT2.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN DỰ ÁN CÔNG NGHỆ THÔNG TIN 2</t>
   </si>
@@ -103,22 +103,24 @@
   </si>
   <si>
     <t>Tìm hiểu Laravel.
-Tìm hiểu Vuejs.
-Xây dựng chức năng quản lý thông tin sinh viên kết hợp Laravel và VueJS lại với nhau.</t>
+Xây dựng chức năng quản lý thông tin sinh viên.</t>
   </si>
   <si>
-    <t>Xây dựng chức năng quản lý thông tin giảng viên, khoa, lớp.</t>
+    <t>Xây dựng chức năng quản lý khoa.
+Xây dựng chức năng quản lý lớp.</t>
   </si>
   <si>
-    <t>1. Tìm hiểu VueJS.
-Khó khăn: chưa có tài liệu hay ví dụ cụ thể về cách đăng nhập và phân quyền cho việc kết hợp Laravel và VueJS lại với nhau.
-2. Tìm hiểu Laravel
-Khó khăn: chưa có tài liệu hay ví dụ cụ thể về cách đăng nhập và phân quyền cho việc kết hợp Laravel và VueJS lại với nhau.</t>
+    <t>Xây dựng chức năng quản lý thông tin giảng viên. Xây dựng chức năng quản lý khoa.
+Xây dựng chức năng quản lý lớp.</t>
   </si>
   <si>
-    <t>Xây dựng chức năng đăng nhập.
-Tạo tài khoản người dùng.
-Phân quyền.</t>
+    <t>Xây dựng chức năng quản lý môn học.</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng quản lý điểm môn học</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng quản lý người dùng.</t>
   </si>
 </sst>
 </file>
@@ -496,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:AE985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -894,7 +896,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -920,7 +922,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" ht="150" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -938,14 +940,10 @@
       <c r="E11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="19">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -971,7 +969,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -984,12 +982,14 @@
         <v>44151</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19">
         <v>0.25</v>
@@ -1030,9 +1030,13 @@
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19">
         <v>0</v>
@@ -1073,9 +1077,13 @@
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
         <v>0</v>
@@ -1116,9 +1124,13 @@
         <f t="shared" si="0"/>
         <v>44172</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19">
         <v>0</v>

--- a/documents/DACNTT2.1.xlsx
+++ b/documents/DACNTT2.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN DỰ ÁN CÔNG NGHỆ THÔNG TIN 2</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Vẽ ER Diagram; Vẽ Class Diagram</t>
   </si>
   <si>
-    <t>Xây dựng chức năng quản lý thông tin giảng viên</t>
-  </si>
-  <si>
     <t>Chọn và tìm hiểu công nghệ cho việc thiết kế giao diện và back-ends.
 Xây dựng chức năng quản lý thông tin sinh viên</t>
   </si>
@@ -104,10 +101,6 @@
   <si>
     <t>Tìm hiểu Laravel.
 Xây dựng chức năng quản lý thông tin sinh viên.</t>
-  </si>
-  <si>
-    <t>Xây dựng chức năng quản lý khoa.
-Xây dựng chức năng quản lý lớp.</t>
   </si>
   <si>
     <t>Xây dựng chức năng quản lý thông tin giảng viên. Xây dựng chức năng quản lý khoa.
@@ -121,6 +114,11 @@
   </si>
   <si>
     <t>Xây dựng chức năng quản lý người dùng.</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng quản lý khoa.
+Xây dựng chức năng quản lý lớp.
+Xây dựng chức năng quản lý thông tin giảng viên</t>
   </si>
 </sst>
 </file>
@@ -499,7 +497,7 @@
   <dimension ref="A1:AE985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>20</v>
@@ -935,10 +933,10 @@
         <v>44144</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -969,7 +967,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -982,14 +980,12 @@
         <v>44151</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19">
         <v>0.25</v>
@@ -1031,11 +1027,11 @@
         <v>44158</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19">
@@ -1078,11 +1074,11 @@
         <v>44165</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
@@ -1125,11 +1121,11 @@
         <v>44172</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19">

--- a/documents/DACNTT2.1.xlsx
+++ b/documents/DACNTT2.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN DỰ ÁN CÔNG NGHỆ THÔNG TIN 2</t>
   </si>
@@ -119,6 +119,12 @@
     <t>Xây dựng chức năng quản lý khoa.
 Xây dựng chức năng quản lý lớp.
 Xây dựng chức năng quản lý thông tin giảng viên</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu cho chức năng quản lý môn học</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu cho chức năng quản lý điểm.</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:AE985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1029,13 +1035,15 @@
       <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1076,13 +1084,15 @@
       <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
